--- a/SI4825_KIT_TH_BOM.xlsx
+++ b/SI4825_KIT_TH_BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgb/Desktop/SI4825_kit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgb/Documents/Documents - Gabe’s MacBook Pro/github/Si4825-AM-FM-Radio-Kit-TH/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>Ref Des</t>
   </si>
@@ -221,9 +221,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>C3-C9</t>
-  </si>
-  <si>
     <t>22pF 2.5mm radial Capacitor C0G</t>
   </si>
   <si>
@@ -242,18 +239,9 @@
     <t>100kOhm 5% 1/4W Resistor</t>
   </si>
   <si>
-    <t>Dual low-voltage op amp</t>
-  </si>
-  <si>
     <t>Microchip</t>
   </si>
   <si>
-    <t>MCP6002T-I/SN</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/microchip-technology/MCP6002T-I-SN/MCP6002T-I-SNDKR-ND/4307917</t>
-  </si>
-  <si>
     <t>SI4825 Trough Hole KIT PCB</t>
   </si>
   <si>
@@ -276,6 +264,36 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>C3-C6, C8</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/tdk-corporation/FK24X5R0J226M/445-8492-ND/2815422</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>22uF 5mm radial Capacitor X5R</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>FK24X5R0J226M</t>
+  </si>
+  <si>
+    <t>NOSTUFF</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/microchip-technology/MCP6002-E-P/MCP6002-E-P-ND/683196</t>
+  </si>
+  <si>
+    <t>MCP6002-E/P</t>
+  </si>
+  <si>
+    <t>Dual low-voltage op amp (PDIP-8)</t>
   </si>
 </sst>
 </file>
@@ -591,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -655,7 +673,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -667,7 +685,7 @@
         <v>54</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0.24010000000000001</v>
@@ -678,107 +696,110 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>9.9000000000000005E-2</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>8.4000000000000005E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>76</v>
@@ -786,10 +807,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -801,15 +822,15 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -821,182 +842,176 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.55900000000000005</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>82</v>
+      <c r="F16">
+        <v>0.55900000000000005</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>0.33</v>
+      <c r="F17" t="s">
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2.14</v>
+        <v>0.2</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1004,7 +1019,33 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2.14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/SI4825_KIT_TH_BOM.xlsx
+++ b/SI4825_KIT_TH_BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgb/Documents/Documents - Gabe’s MacBook Pro/github/Si4825-AM-FM-Radio-Kit-TH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgb/Documents/github/Si4825-AM-FM-Radio-Kit-TH/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>Ref Des</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Microchip</t>
   </si>
   <si>
-    <t>SI4825 Trough Hole KIT PCB</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/yageo/MFR-25FBF52-76K8/76.8KXBK-ND/13451</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>Multi-band Radio Receiver IC</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>C3-C6, C8</t>
   </si>
   <si>
@@ -294,6 +288,9 @@
   </si>
   <si>
     <t>Dual low-voltage op amp (PDIP-8)</t>
+  </si>
+  <si>
+    <t>Si4825 Through Hole Kit PCB</t>
   </si>
 </sst>
 </file>
@@ -612,7 +609,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +670,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -696,16 +693,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -714,7 +711,7 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -802,7 +799,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -822,7 +819,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -842,7 +839,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -850,7 +847,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -862,7 +859,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -896,7 +893,7 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -950,7 +947,7 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
@@ -960,12 +957,6 @@
       </c>
       <c r="E17">
         <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -973,13 +964,13 @@
         <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -988,7 +979,7 @@
         <v>0.3</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1045,7 +1036,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
